--- a/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>CANO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,90 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>393200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>280100</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,20 +886,23 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>13200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -898,37 +918,43 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>5800</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,28 +963,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18100</v>
+        <v>419700</v>
       </c>
       <c r="E17" s="3">
+        <v>279300</v>
+      </c>
+      <c r="F17" s="3">
         <v>28800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -966,25 +993,28 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-26500</v>
       </c>
       <c r="E18" s="3">
-        <v>-28800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,25 +1041,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>39200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1037,16 +1071,19 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1066,57 +1103,63 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>10600</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18100</v>
+        <v>2900</v>
       </c>
       <c r="E23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-28800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1124,37 +1167,43 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,28 +1231,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18100</v>
+        <v>4900</v>
       </c>
       <c r="E26" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-28800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1211,28 +1263,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18100</v>
+        <v>9500</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-28800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,25 +1423,28 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-39200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1385,28 +1455,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18100</v>
+        <v>9500</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-28800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,28 +1519,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18100</v>
+        <v>9500</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-28800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1472,42 +1551,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,26 +1618,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>319300</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,77 +1680,86 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>131800</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>20100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
@@ -1668,8 +1767,8 @@
       <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1677,55 +1776,61 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>472400</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>690400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>690300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>690200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>690100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,66 +1840,75 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>46400</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>740600</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,19 +1968,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+        <v>399800</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -1871,17 +1991,20 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2032,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1659200</v>
+      </c>
+      <c r="E54" s="3">
         <v>691000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>691500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>692100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>692500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,42 +2094,46 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>46500</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>6500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2010,69 +2144,75 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2080,13 +2220,16 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>527500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2109,25 +2252,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E62" s="3">
         <v>131200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>114700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>24200</v>
       </c>
       <c r="G62" s="3">
         <v>24200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>24200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="E66" s="3">
         <v>134500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>116900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,28 +2554,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-47000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-28900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,28 +2682,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>352200</v>
+      </c>
+      <c r="E76" s="3">
         <v>556500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>574700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>667900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>668000</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,62 +2746,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18100</v>
+        <v>9500</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-28800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +2831,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,28 +3021,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,13 +3163,16 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-649300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -2953,20 +3183,23 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,23 +3337,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>991300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3123,8 +3369,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
   <si>
     <t>CANO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,44 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
-        <v>44196</v>
-      </c>
-      <c r="G7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="H7" s="2">
-        <v>44012</v>
-      </c>
-      <c r="I7" s="2">
-        <v>43921</v>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
@@ -715,20 +713,23 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>393200</v>
+        <v>526800</v>
       </c>
       <c r="E8" s="3">
+        <v>673300</v>
+      </c>
+      <c r="F8" s="3">
         <v>280100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -741,14 +742,17 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +818,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +835,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +868,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,19 +903,22 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>13200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -921,20 +938,23 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>7900</v>
+        <v>17000</v>
       </c>
       <c r="E15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F15" s="3">
         <v>5800</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -947,14 +967,17 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,28 +987,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>419700</v>
+        <v>536400</v>
       </c>
       <c r="E17" s="3">
+        <v>699000</v>
+      </c>
+      <c r="F17" s="3">
         <v>279300</v>
       </c>
-      <c r="F17" s="3">
-        <v>28800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -996,20 +1020,23 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-26500</v>
+        <v>-9600</v>
       </c>
       <c r="E18" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1028,8 +1055,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,19 +1072,20 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E20" s="3">
         <v>39200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1074,19 +1105,22 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>26400</v>
+        <v>-7400</v>
       </c>
       <c r="E21" s="3">
-        <v>900</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>27300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1106,20 +1140,23 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9700</v>
+        <v>16000</v>
       </c>
       <c r="E22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F22" s="3">
         <v>10600</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1132,34 +1169,37 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2900</v>
+        <v>-40300</v>
       </c>
       <c r="E23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-9800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-28800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
+      <c r="G23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1170,20 +1210,23 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2000</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1196,14 +1239,17 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,28 +1280,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4900</v>
+        <v>-40900</v>
       </c>
       <c r="E26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-28800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
+      <c r="G26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1266,28 +1315,31 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E27" s="3">
         <v>9500</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>-28800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1350,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1385,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1420,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1455,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,19 +1490,22 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-39200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1458,28 +1525,31 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E33" s="3">
         <v>9500</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>-28800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1490,8 +1560,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,28 +1595,31 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E35" s="3">
         <v>9500</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>-28800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1554,33 +1630,36 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
-        <v>44196</v>
-      </c>
-      <c r="G38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="H38" s="2">
-        <v>44012</v>
-      </c>
-      <c r="I38" s="2">
-        <v>43921</v>
+      <c r="G38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
@@ -1591,8 +1670,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1687,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,25 +1702,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>208900</v>
+      </c>
+      <c r="E41" s="3">
         <v>319300</v>
       </c>
-      <c r="E41" s="3">
-        <v>500</v>
-      </c>
       <c r="F41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2100</v>
+        <v>6600</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1651,8 +1735,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,19 +1770,22 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E43" s="3">
         <v>131800</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>88000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1709,25 +1799,28 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3">
+        <v>1000</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1741,34 +1834,37 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E45" s="3">
         <v>20100</v>
       </c>
-      <c r="E45" s="3">
-        <v>200</v>
-      </c>
       <c r="F45" s="3">
-        <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>300</v>
+        <v>15400</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1779,28 +1875,31 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>465100</v>
+      </c>
+      <c r="E46" s="3">
         <v>472400</v>
       </c>
-      <c r="E46" s="3">
-        <v>600</v>
-      </c>
       <c r="F46" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
+        <v>111000</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1811,31 +1910,34 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>690400</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>690300</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>690200</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>690100</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1843,19 +1945,22 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E48" s="3">
         <v>46400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>40200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1869,25 +1974,28 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>740600</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>1606100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1135800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>458000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1901,14 +2009,17 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2050,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,25 +2085,28 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>399800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1997,14 +2114,17 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,28 +2155,31 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2140100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1659200</v>
       </c>
-      <c r="E54" s="3">
-        <v>691000</v>
-      </c>
       <c r="F54" s="3">
-        <v>691500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>692100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>692500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>300</v>
+        <v>616700</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2067,8 +2190,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2207,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,19 +2222,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E57" s="3">
         <v>46500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>39900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2121,25 +2249,28 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6500</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>8000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2147,8 +2278,8 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2159,28 +2290,31 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39700</v>
+        <v>54900</v>
       </c>
       <c r="E59" s="3">
-        <v>3300</v>
+        <v>39400</v>
       </c>
       <c r="F59" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
+        <v>41100</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2191,28 +2325,31 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>139600</v>
+      </c>
+      <c r="E60" s="3">
         <v>92700</v>
       </c>
-      <c r="E60" s="3">
-        <v>3300</v>
-      </c>
       <c r="F60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
+        <v>87100</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2223,19 +2360,22 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>527500</v>
+        <v>919100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>528400</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>458800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2255,25 +2395,28 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>150700</v>
+        <v>223400</v>
       </c>
       <c r="E62" s="3">
-        <v>131200</v>
+        <v>149800</v>
       </c>
       <c r="F62" s="3">
-        <v>114700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>24200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>24200</v>
+        <v>23800</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2287,8 +2430,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2465,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2500,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,28 +2535,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1829500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1307000</v>
       </c>
-      <c r="E66" s="3">
-        <v>134500</v>
-      </c>
       <c r="F66" s="3">
-        <v>116900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>24200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>24500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>300</v>
+        <v>569600</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2415,8 +2570,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2587,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2620,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2655,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2690,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,28 +2725,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-37600</v>
       </c>
-      <c r="E72" s="3">
-        <v>-47000</v>
-      </c>
       <c r="F72" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
+        <v>-110400</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2589,8 +2760,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2795,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2830,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,28 +2865,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>310600</v>
+      </c>
+      <c r="E76" s="3">
         <v>352200</v>
       </c>
-      <c r="E76" s="3">
-        <v>556500</v>
-      </c>
       <c r="F76" s="3">
-        <v>574700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>667900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>668000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
+        <v>47100</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2717,8 +2900,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,33 +2935,36 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
-        <v>44196</v>
-      </c>
-      <c r="G80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="H80" s="2">
-        <v>44012</v>
-      </c>
-      <c r="I80" s="2">
-        <v>43921</v>
+      <c r="G80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
@@ -2786,28 +2975,31 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E81" s="3">
         <v>9500</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>-28800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3010,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,19 +3027,20 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E83" s="3">
         <v>13800</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>5800</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2858,14 +3054,17 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3095,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3130,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3165,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3200,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,28 +3235,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-56000</v>
+        <v>-34900</v>
       </c>
       <c r="E89" s="3">
-        <v>-500</v>
+        <v>-56600</v>
       </c>
       <c r="F89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+        <v>-16700</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3056,8 +3270,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,31 +3287,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-15500</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-7700</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-2600</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3102,8 +3320,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3355,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,22 +3390,25 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-466800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-649300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+        <v>-9700</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3192,14 +3419,17 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3442,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3475,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3510,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3545,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,22 +3580,25 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>391300</v>
+      </c>
+      <c r="E100" s="3">
         <v>991300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-300</v>
+        <v>-800</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3372,8 +3615,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,28 +3650,31 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>286000</v>
+        <v>-110400</v>
       </c>
       <c r="E102" s="3">
-        <v>-500</v>
+        <v>285500</v>
       </c>
       <c r="F102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+        <v>-27200</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3434,6 +3683,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
   <si>
     <t>CANO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,26 +717,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>704300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>409300</v>
+      </c>
+      <c r="F8" s="3">
         <v>526800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>673300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>280100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,14 +752,20 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,8 +799,14 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,8 +840,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +861,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +898,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,25 +939,31 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>13200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -941,26 +980,32 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F15" s="3">
         <v>17000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>13800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>5800</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -970,14 +1015,20 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,26 +1039,28 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>717200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>522300</v>
+      </c>
+      <c r="F17" s="3">
         <v>536400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>699000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>279300</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,26 +1076,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-25700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1117,14 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,25 +1138,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>58300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-14700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>39200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1108,26 +1175,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>27300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,26 +1216,32 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F22" s="3">
         <v>16000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>20300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>10600</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1172,32 +1251,38 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-40300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9800</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,26 +1298,32 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1242,14 +1333,20 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,26 +1380,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-40900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-10500</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,25 +1421,31 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-14600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>9500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1353,8 +1462,14 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1503,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1544,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1585,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,25 +1626,31 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="F32" s="3">
         <v>14700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-39200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1528,25 +1667,31 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-14600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>9500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1563,8 +1708,14 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,25 +1749,31 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-14600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>9500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1633,31 +1790,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1836,14 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1857,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,26 +1874,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>163200</v>
+      </c>
+      <c r="F41" s="3">
         <v>208900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>319300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,8 +1911,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1773,26 +1952,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>191700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>133400</v>
+      </c>
+      <c r="F43" s="3">
         <v>223600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>131800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>88000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1802,32 +1987,38 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F44" s="3">
         <v>1800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1837,32 +2028,38 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F45" s="3">
         <v>30800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>20100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>15400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,26 +2075,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>323600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>317200</v>
+      </c>
+      <c r="F46" s="3">
         <v>465100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>472400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>111000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1913,8 +2116,14 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1939,35 +2148,41 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>247800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>217400</v>
+      </c>
+      <c r="F48" s="3">
         <v>64200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>46400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>40200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1977,32 +2192,38 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1583800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1595300</v>
+      </c>
+      <c r="F49" s="3">
         <v>1606100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1135800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>458000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2012,14 +2233,20 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2280,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,26 +2321,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2117,14 +2356,20 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,26 +2403,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2171800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2143500</v>
+      </c>
+      <c r="F54" s="3">
         <v>2140100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1659200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>616700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2444,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2465,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,26 +2482,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>72800</v>
+      </c>
+      <c r="F57" s="3">
         <v>76700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>46500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>39900</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,32 +2513,38 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F58" s="3">
         <v>8000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2293,26 +2560,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F59" s="3">
         <v>54900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>39400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>41100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2328,26 +2601,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>161000</v>
+      </c>
+      <c r="F60" s="3">
         <v>139600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>92700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>87100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,26 +2642,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>918500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>918800</v>
+      </c>
+      <c r="F61" s="3">
         <v>919100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>528400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>458800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2398,26 +2683,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>256900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>265200</v>
+      </c>
+      <c r="F62" s="3">
         <v>223400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>149800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>23800</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,8 +2724,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2765,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2806,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,26 +2847,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1785600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1824800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1829500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1307000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>569600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2888,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2909,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2946,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2987,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2693,8 +3028,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,26 +3069,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-78100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-52500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-37600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-110400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,8 +3110,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +3151,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3192,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,26 +3233,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>386200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>318700</v>
+      </c>
+      <c r="F76" s="3">
         <v>310600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>352200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>47100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3274,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,31 +3315,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2978,25 +3361,31 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-14600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>9500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3013,8 +3402,14 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,26 +3423,28 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F83" s="3">
         <v>17000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>13800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,14 +3454,20 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3501,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3542,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3583,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3624,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,26 +3665,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-34900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-56600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-16700</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3706,14 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,43 +3727,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-7700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3805,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,26 +3846,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-466800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-649300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-9700</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3422,14 +3881,20 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,8 +3908,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3478,8 +3945,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3986,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +4027,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,26 +4068,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F100" s="3">
         <v>391300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>991300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3618,8 +4109,14 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3653,26 +4150,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-110400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>285500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-27200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3686,6 +4189,12 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="92">
   <si>
     <t>CANO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,28 +724,31 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>689400</v>
+      </c>
+      <c r="E8" s="3">
         <v>704300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>409300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>526800</v>
       </c>
-      <c r="G8" s="3">
-        <v>673300</v>
-      </c>
       <c r="H8" s="3">
-        <v>280100</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>343600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>274600</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -758,14 +762,17 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,8 +812,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +856,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,8 +876,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,8 +918,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,28 +962,31 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>13200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -986,29 +1006,32 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E15" s="3">
         <v>19000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>18700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>17000</v>
       </c>
-      <c r="G15" s="3">
-        <v>13800</v>
-      </c>
       <c r="H15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I15" s="3">
         <v>5800</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1021,14 +1044,17 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,28 +1067,29 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>720400</v>
+      </c>
+      <c r="E17" s="3">
         <v>717200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>522300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>536400</v>
       </c>
-      <c r="G17" s="3">
-        <v>699000</v>
-      </c>
       <c r="H17" s="3">
-        <v>279300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>411400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>279400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1082,28 +1109,31 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-113000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-25700</v>
-      </c>
       <c r="H18" s="3">
-        <v>800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-67800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-4800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1153,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,28 +1173,29 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E20" s="3">
         <v>27200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>58300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>39200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1181,28 +1215,31 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E21" s="3">
         <v>33300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-35900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7400</v>
       </c>
-      <c r="G21" s="3">
-        <v>27300</v>
-      </c>
       <c r="H21" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-20700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1222,29 +1259,32 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E22" s="3">
         <v>13300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16000</v>
       </c>
-      <c r="G22" s="3">
-        <v>20300</v>
-      </c>
       <c r="H22" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I22" s="3">
         <v>10600</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,34 +1297,37 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-69600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-40300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-6800</v>
-      </c>
       <c r="H23" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-38300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-15400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1304,29 +1347,32 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1339,14 +1385,17 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,28 +1435,31 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-70300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5500</v>
-      </c>
       <c r="H26" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-36300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-16100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1427,28 +1479,31 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14600</v>
       </c>
-      <c r="G27" s="3">
-        <v>9500</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1468,8 +1523,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1567,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1611,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1655,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,28 +1699,31 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-27200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-58300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-39200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1673,28 +1743,31 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14600</v>
       </c>
-      <c r="G33" s="3">
-        <v>9500</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1714,8 +1787,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,28 +1831,31 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14600</v>
       </c>
-      <c r="G35" s="3">
-        <v>9500</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1796,34 +1875,37 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +1924,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +1944,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,29 +1962,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E41" s="3">
         <v>113100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>163200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>208900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>319300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2004,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,29 +2048,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E43" s="3">
         <v>191700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>133400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>223600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>131800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>88000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,35 +2086,38 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3">
         <v>1100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2034,35 +2130,38 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E45" s="3">
         <v>18900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,29 +2180,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>287300</v>
+      </c>
+      <c r="E46" s="3">
         <v>323600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>317200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>465100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>472400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>111000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2224,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2154,8 +2259,8 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2163,29 +2268,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E48" s="3">
         <v>247800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>217400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>64200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>46400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>40200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2198,35 +2306,38 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1573000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1583800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1595300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1606100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1135800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>458000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,14 +2350,17 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2400,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,29 +2444,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E52" s="3">
         <v>16600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4700</v>
       </c>
       <c r="G52" s="3">
         <v>4700</v>
       </c>
       <c r="H52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I52" s="3">
         <v>7500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,14 +2482,17 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,29 +2532,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2141400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2171800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2143500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2140100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1659200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>616700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2576,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2596,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,29 +2614,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E57" s="3">
         <v>93400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>72800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>76700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>46500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2519,35 +2650,38 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,29 +2700,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E59" s="3">
         <v>57400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>80000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>54900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,29 +2744,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>142100</v>
+      </c>
+      <c r="E60" s="3">
         <v>158700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>161000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>139600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>87100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,29 +2788,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>917800</v>
+      </c>
+      <c r="E61" s="3">
         <v>918500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>918800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>919100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>528400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>458800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2689,29 +2832,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>240500</v>
+      </c>
+      <c r="E62" s="3">
         <v>256900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>265200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>223400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>149800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +2876,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +2920,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +2964,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,29 +3008,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1729100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1785600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1824800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1829500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1307000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>569600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3052,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3072,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3114,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3158,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3034,8 +3202,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,29 +3246,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-78100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-78800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-37600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-110400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3290,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3334,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3378,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,29 +3422,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>412300</v>
+      </c>
+      <c r="E76" s="3">
         <v>386200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>318700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>310600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>352200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3466,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,34 +3510,37 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3367,28 +3559,31 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14600</v>
       </c>
-      <c r="G81" s="3">
-        <v>9500</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3408,8 +3603,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,29 +3623,30 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E83" s="3">
         <v>19000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17000</v>
       </c>
-      <c r="G83" s="3">
-        <v>13800</v>
-      </c>
       <c r="H83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I83" s="3">
         <v>5800</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3460,14 +3659,17 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3709,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3753,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +3797,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +3841,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,29 +3885,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-34900</v>
       </c>
-      <c r="G89" s="3">
-        <v>-56600</v>
-      </c>
       <c r="H89" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-16700</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3712,8 +3929,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,29 +3949,30 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15500</v>
       </c>
-      <c r="G91" s="3">
-        <v>-7700</v>
-      </c>
       <c r="H91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3761,8 +3982,8 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3770,8 +3991,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4035,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,29 +4079,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-466800</v>
-      </c>
       <c r="G94" s="3">
-        <v>-649300</v>
+        <v>-469900</v>
       </c>
       <c r="H94" s="3">
+        <v>-636400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-9700</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3887,14 +4117,17 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4143,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3951,8 +4185,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4229,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4273,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,29 +4317,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>391300</v>
       </c>
-      <c r="G100" s="3">
-        <v>991300</v>
-      </c>
       <c r="H100" s="3">
+        <v>992100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4115,8 +4361,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4156,29 +4405,32 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-45700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-110400</v>
       </c>
-      <c r="G102" s="3">
-        <v>285500</v>
-      </c>
       <c r="H102" s="3">
+        <v>312700</v>
+      </c>
+      <c r="I102" s="3">
         <v>-27200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4195,6 +4447,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="92">
   <si>
     <t>CANO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,32 +728,35 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>665000</v>
+      </c>
+      <c r="E8" s="3">
         <v>689400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>704300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>409300</v>
       </c>
-      <c r="G8" s="3">
-        <v>526800</v>
-      </c>
       <c r="H8" s="3">
+        <v>498900</v>
+      </c>
+      <c r="I8" s="3">
         <v>343600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>274600</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -765,14 +769,17 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,8 +822,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,8 +869,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +890,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -921,8 +935,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -965,8 +982,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -974,22 +994,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>13200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1009,32 +1029,35 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E15" s="3">
         <v>19800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>18700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>17000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5800</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,14 +1070,17 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1068,32 +1094,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>696500</v>
+      </c>
+      <c r="E17" s="3">
         <v>720400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>717200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>522300</v>
       </c>
-      <c r="G17" s="3">
-        <v>536400</v>
-      </c>
       <c r="H17" s="3">
+        <v>532500</v>
+      </c>
+      <c r="I17" s="3">
         <v>411400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>279400</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,32 +1139,35 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-31000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-113000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-9600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-67800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1156,8 +1186,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1174,31 +1207,32 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="E20" s="3">
         <v>30400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>27200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>58300</v>
       </c>
-      <c r="G20" s="3">
-        <v>-14700</v>
-      </c>
       <c r="H20" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="I20" s="3">
         <v>39200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1218,32 +1252,35 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="E21" s="3">
         <v>19200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>33300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-35900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H21" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-20700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,32 +1299,35 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E22" s="3">
         <v>13100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10600</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1300,38 +1340,41 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-113300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-69600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-40300</v>
-      </c>
       <c r="H23" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-38300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,32 +1393,35 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1388,14 +1434,17 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1438,32 +1487,35 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-70300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-40900</v>
-      </c>
       <c r="H26" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-36300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1482,31 +1534,34 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-14600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="I27" s="3">
         <v>4600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1526,8 +1581,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1570,8 +1628,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1614,8 +1675,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1658,8 +1722,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1702,31 +1769,34 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-30400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-27200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-58300</v>
       </c>
-      <c r="G32" s="3">
-        <v>14700</v>
-      </c>
       <c r="H32" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-39200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1746,31 +1816,34 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-14600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="I33" s="3">
         <v>4600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1790,8 +1863,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1834,31 +1910,34 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-14600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="I35" s="3">
         <v>4600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1878,37 +1957,40 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1927,8 +2009,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1945,8 +2030,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1963,32 +2049,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E41" s="3">
         <v>47800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>113100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>163200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>208900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>319300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2007,8 +2094,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2051,32 +2141,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E43" s="3">
         <v>201000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>191700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>133400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>223600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>131800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>88000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2089,14 +2182,17 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2106,21 +2202,21 @@
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3">
         <v>1100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,38 +2229,41 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E45" s="3">
         <v>38500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,32 +2282,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E46" s="3">
         <v>287300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>323600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>317200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>465100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>472400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>111000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2227,8 +2329,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2262,8 +2367,8 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2271,32 +2376,35 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E48" s="3">
         <v>274800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>247800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>217400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>64200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>46400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>40200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2309,38 +2417,41 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1584500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1573000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1583800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1595300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1606100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1135800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>458000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2353,14 +2464,17 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2403,8 +2517,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2447,32 +2564,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E52" s="3">
         <v>6300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>4700</v>
       </c>
       <c r="H52" s="3">
         <v>4700</v>
       </c>
       <c r="I52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J52" s="3">
         <v>7500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2485,14 +2605,17 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2535,32 +2658,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2196100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2141400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2171800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2143500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2140100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1659200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>616700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,8 +2705,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2597,8 +2726,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2615,32 +2745,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E57" s="3">
         <v>69400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>93400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>72800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>76700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,14 +2784,17 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2668,23 +2802,23 @@
         <v>8000</v>
       </c>
       <c r="E58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F58" s="3">
         <v>7900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,32 +2837,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E59" s="3">
         <v>64600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>57400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>80000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2747,32 +2884,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>185600</v>
+      </c>
+      <c r="E60" s="3">
         <v>142100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>158700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>161000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>139600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>92700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>87100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2791,32 +2931,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>917500</v>
+      </c>
+      <c r="E61" s="3">
         <v>917800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>918500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>918800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>919100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>528400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>458800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2835,32 +2978,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>310000</v>
+      </c>
+      <c r="E62" s="3">
         <v>240500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>256900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>265200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>223400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>149800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2879,8 +3025,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2923,8 +3072,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2967,8 +3119,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3011,32 +3166,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1789600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1729100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1785600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1824800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1829500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1307000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>569600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3213,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3073,8 +3234,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3117,8 +3279,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3161,8 +3326,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3205,8 +3373,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3249,32 +3420,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-137700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-83400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-78100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-78800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-37600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-110400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3293,8 +3467,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3337,8 +3514,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3381,8 +3561,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3425,32 +3608,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>406500</v>
+      </c>
+      <c r="E76" s="3">
         <v>412300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>386200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>318700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>310600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>352200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3655,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3513,37 +3702,40 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3562,31 +3754,34 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-14600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="I81" s="3">
         <v>4600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3606,8 +3801,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3624,32 +3822,33 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E83" s="3">
         <v>19800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>18700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,14 +3861,17 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3712,8 +3914,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3756,8 +3961,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3800,8 +4008,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3844,8 +4055,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3888,32 +4102,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-45000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-34900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-39900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16700</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3932,8 +4149,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3950,32 +4170,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3985,8 +4206,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3994,8 +4215,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4038,8 +4262,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4082,32 +4309,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13500</v>
       </c>
-      <c r="F94" s="3">
-        <v>-15200</v>
-      </c>
       <c r="G94" s="3">
-        <v>-469900</v>
+        <v>-18400</v>
       </c>
       <c r="H94" s="3">
+        <v>-466800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-636400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9700</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4120,14 +4350,17 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4144,8 +4377,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4188,8 +4422,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4232,8 +4469,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4276,8 +4516,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4320,32 +4563,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>391300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>992100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4364,8 +4610,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4408,32 +4657,35 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-65200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-45700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-110400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>312700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-27200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4450,6 +4702,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="92">
   <si>
     <t>CANO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -731,38 +732,44 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>866900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>680400</v>
+      </c>
+      <c r="F8" s="3">
         <v>665000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>689400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>704300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>409300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>498900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>343600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>274600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -772,14 +779,20 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -825,8 +838,14 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +891,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +916,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -938,8 +965,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -985,8 +1018,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -994,28 +1033,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>323000</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>13200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1032,38 +1071,44 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F15" s="3">
         <v>25300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>19800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>19000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>18700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>17000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>7900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>5800</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,14 +1118,20 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,38 +1146,40 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>906400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1042900</v>
+      </c>
+      <c r="F17" s="3">
         <v>696500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>720400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>717200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>522300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>532500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>411400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>279400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,38 +1195,44 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-362500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-31500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-31000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-12900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-113000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-33600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-67800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1189,8 +1248,14 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1208,37 +1273,39 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-65300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>30400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>27200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>58300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-14600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>39200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1255,38 +1322,44 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-254200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-71500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>19200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>33300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-35900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-31300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-20700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1302,38 +1375,44 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F22" s="3">
         <v>16500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>13100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>13300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>14900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>16000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>9700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>10600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,44 +1422,50 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-113300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-13800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-69600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-64300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-38300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-15400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,38 +1481,44 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1100</v>
       </c>
       <c r="G24" s="3">
         <v>800</v>
       </c>
       <c r="H24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>800</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1437,14 +1528,20 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1490,38 +1587,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-301700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-112000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-14600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-70300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-64800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-36300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-16100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1537,37 +1640,43 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-148400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-54200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-12900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-23200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1584,8 +1693,14 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1631,8 +1746,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1678,8 +1799,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1725,8 +1852,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1772,37 +1905,43 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="F32" s="3">
         <v>65300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-30400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-27200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-58300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>14600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-39200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1819,37 +1958,43 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-148400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-54200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-12900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-23200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4600</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1866,8 +2011,14 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1913,37 +2064,43 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-148400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-54200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-12900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-23200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4600</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1960,43 +2117,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2175,14 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +2200,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2050,38 +2221,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F41" s="3">
         <v>24100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>47800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>113100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>163200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>208900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>319300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2270,14 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2144,38 +2323,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>242200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>233800</v>
+      </c>
+      <c r="F43" s="3">
         <v>202000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>201000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>191700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>133400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>223600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>131800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>88000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,14 +2370,20 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2205,24 +2396,24 @@
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3">
         <v>1100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,44 +2423,50 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>79600</v>
+      </c>
+      <c r="F45" s="3">
         <v>78800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>38500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>18900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>19500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>30800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>20100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>15400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,38 +2482,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>313700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>340700</v>
+      </c>
+      <c r="F46" s="3">
         <v>305000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>287300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>323600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>317200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>465100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>472400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>111000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,8 +2535,14 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2370,47 +2579,53 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>310800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>309200</v>
+      </c>
+      <c r="F48" s="3">
         <v>297000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>274800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>247800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>217400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>64200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>46400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>40200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2420,44 +2635,50 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1253000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1274100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1584500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1573000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1583800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1595300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1606100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1135800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>458000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2467,14 +2688,20 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2520,8 +2747,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2567,38 +2800,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F52" s="3">
         <v>9800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>16600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>13600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2608,14 +2847,20 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2661,38 +2906,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1944400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1928900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2196100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2141400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2171800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2143500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2140100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1659200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>616700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,8 +2959,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2727,8 +2984,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2746,38 +3005,40 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>105700</v>
+      </c>
+      <c r="F57" s="3">
         <v>110300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>69400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>93400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>72800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>76700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>46500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>39900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2787,44 +3048,50 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F58" s="3">
         <v>8000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>8000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>8300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>8000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,38 +3107,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>94600</v>
+      </c>
+      <c r="F59" s="3">
         <v>67200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>64600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>57400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>80000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>54900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>39400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>41100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2887,38 +3160,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>213900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>208400</v>
+      </c>
+      <c r="F60" s="3">
         <v>185600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>142100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>158700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>161000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>139600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>92700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>87100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2934,38 +3213,44 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1016400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1001200</v>
+      </c>
+      <c r="F61" s="3">
         <v>917500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>917800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>918500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>918800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>919100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>528400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>458800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2981,38 +3266,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>209600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>225000</v>
+      </c>
+      <c r="F62" s="3">
         <v>310000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>240500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>256900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>265200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>223400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>149800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>23800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,8 +3319,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3075,8 +3372,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,8 +3425,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3169,38 +3478,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1663500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1676300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1789600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1729100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1785600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1824800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1829500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1307000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>569600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3216,8 +3531,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3235,8 +3556,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3282,8 +3605,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3329,8 +3658,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3376,8 +3711,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3423,38 +3764,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-314200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-286000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-137700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-83400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-78100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-78800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-52500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-37600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-110400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3817,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3517,8 +3870,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3564,8 +3923,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3611,38 +3976,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>280900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>252600</v>
+      </c>
+      <c r="F76" s="3">
         <v>406500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>412300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>386200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>318700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>310600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>352200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>47100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3658,8 +4029,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3705,43 +4082,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3757,37 +4140,43 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-148400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-54200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-12900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-23200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4600</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3804,8 +4193,14 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3823,38 +4218,40 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F83" s="3">
         <v>25300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>19800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>19000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>18700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>17000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>7900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3864,14 +4261,20 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3917,8 +4320,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3964,8 +4373,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4011,8 +4426,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4058,8 +4479,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4105,38 +4532,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-45000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-37200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-37000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-34900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-39900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-16700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4152,8 +4585,14 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4171,55 +4610,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-18600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-12700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-11100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-15500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4265,8 +4712,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4312,38 +4765,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-18900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-15800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-13500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-18400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-466800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-636400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-9700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4353,14 +4812,20 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4378,8 +4843,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4425,8 +4892,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4472,8 +4945,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4519,8 +4998,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4566,38 +5051,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>81400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>6500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>391300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>992100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4613,8 +5104,14 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4660,38 +5157,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-23800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-65200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-50100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-45700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-110400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>312700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-27200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4705,6 +5208,12 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="92">
   <si>
     <t>CANO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -738,41 +739,44 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>766700</v>
+      </c>
+      <c r="E8" s="3">
         <v>866900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>680400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>665000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>689400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>704300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>409300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>498900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>343600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>274600</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -785,14 +789,17 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -844,8 +851,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,8 +907,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,8 +931,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,8 +985,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,8 +1041,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,31 +1053,31 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>323000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>13200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1077,41 +1097,44 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E15" s="3">
         <v>27200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>26400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>25300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>18700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>17000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5800</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,14 +1147,17 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,41 +1174,42 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1012400</v>
+      </c>
+      <c r="E17" s="3">
         <v>906400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1042900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>696500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>720400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>717200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>522300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>532500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>411400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>279400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,41 +1228,44 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-245700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-39500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-362500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-113000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-33600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-67800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,8 +1284,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,40 +1308,41 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>82000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-65300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>30400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>27200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>58300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>39200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1328,41 +1362,44 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-218600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-254200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-71500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>33300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-31300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-20700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,41 +1418,44 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E22" s="3">
         <v>23500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,47 +1468,50 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-272600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-60600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-113300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-69600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-64300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-38300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,41 +1530,44 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1534,14 +1580,17 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,41 +1642,44 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-270700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-60600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-301700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-112000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-70300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-64800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-36300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,40 +1698,43 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-140800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-148400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-54200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4600</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1699,8 +1754,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1810,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1805,8 +1866,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1922,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,40 +1978,43 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-82000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>65300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-30400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-27200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-58300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-39200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1964,40 +2034,43 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-140800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-148400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-54200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -2017,8 +2090,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,40 +2146,43 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-140800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-148400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-54200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -2123,46 +2202,49 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2181,8 +2263,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2287,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,41 +2309,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E41" s="3">
         <v>44900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>113100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>163200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>208900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>319300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,8 +2363,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,41 +2419,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E43" s="3">
         <v>242200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>233800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>202000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>201000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>191700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>133400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>223600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>131800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>88000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2376,14 +2469,17 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2402,21 +2498,21 @@
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3">
         <v>1100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,47 +2525,50 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E45" s="3">
         <v>26600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>79600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>78800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,41 +2587,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E46" s="3">
         <v>313700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>340700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>305000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>287300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>323600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>317200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>465100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>472400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>111000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,8 +2643,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2585,8 +2690,8 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
@@ -2594,41 +2699,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>303900</v>
+      </c>
+      <c r="E48" s="3">
         <v>310800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>309200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>297000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>274800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>247800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>217400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>64200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>40200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2641,47 +2749,50 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1231700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1253000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1274100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1584500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1573000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1583800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1595300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1606100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1135800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>458000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,14 +2805,17 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2867,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,41 +2923,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E52" s="3">
         <v>66900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>4700</v>
       </c>
       <c r="K52" s="3">
         <v>4700</v>
       </c>
       <c r="L52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M52" s="3">
         <v>7500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2853,14 +2973,17 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,41 +3035,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1707300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1944400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1928900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2196100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2141400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2171800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2143500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2140100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1659200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>616700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3091,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3115,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,41 +3137,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>124800</v>
+      </c>
+      <c r="E57" s="3">
         <v>115200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>105700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>110300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>69400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>93400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>72800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>76700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,47 +3185,50 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>112600</v>
+      </c>
+      <c r="E58" s="3">
         <v>8800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>8000</v>
       </c>
       <c r="G58" s="3">
         <v>8000</v>
       </c>
       <c r="H58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I58" s="3">
         <v>7900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3113,41 +3247,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E59" s="3">
         <v>89900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>94600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>64600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>57400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>80000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3166,41 +3303,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>336900</v>
+      </c>
+      <c r="E60" s="3">
         <v>213900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>208400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>185600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>142100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>158700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>161000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>139600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>87100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,41 +3359,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>930000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1016400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1001200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>917500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>917800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>918500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>918800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>919100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>528400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>458800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3272,41 +3415,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>204600</v>
+      </c>
+      <c r="E62" s="3">
         <v>209600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>225000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>310000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>240500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>256900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>265200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>223400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>149800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3325,8 +3471,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3527,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3583,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,41 +3639,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1560600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1663500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1676300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1789600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1729100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1785600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1824800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1829500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1307000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>569600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +3695,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3719,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3773,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3829,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3717,8 +3885,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,41 +3941,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-454900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-314200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-286000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-137700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-78100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-78800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-37600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-110400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3823,8 +3997,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4053,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4109,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,41 +4165,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>146700</v>
+      </c>
+      <c r="E76" s="3">
         <v>280900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>252600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>406500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>412300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>386200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>318700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>310600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>352200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4035,8 +4221,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,46 +4277,49 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4146,40 +4338,43 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-140800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-148400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-54200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -4199,8 +4394,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,41 +4418,42 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E83" s="3">
         <v>27200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>26400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>18700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4267,14 +4466,17 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4528,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4584,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4640,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4696,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,41 +4752,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-29500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-62200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-45000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-37200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-37000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-34900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-39900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4591,8 +4808,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,41 +4832,42 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4656,8 +4877,8 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4665,8 +4886,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +4942,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,41 +4998,44 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-466800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-636400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4818,14 +5048,17 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,8 +5078,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4898,8 +5132,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5188,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5244,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,41 +5300,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E100" s="3">
         <v>56500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>81400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>391300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>992100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5110,8 +5356,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5163,41 +5412,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E102" s="3">
         <v>17600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-65200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-45700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-110400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>312700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-27200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5214,6 +5466,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="92">
   <si>
     <t>CANO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -742,44 +743,47 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>788100</v>
+      </c>
+      <c r="E8" s="3">
         <v>766700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>866900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>680400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>665000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>689400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>704300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>409300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>498900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>343600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>274600</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -792,14 +796,17 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,8 +861,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,8 +920,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,8 +945,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1002,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1044,43 +1061,46 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>354000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>323000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>13200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1100,44 +1120,47 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E15" s="3">
         <v>27300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>27200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>26400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>25300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>19000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>18700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,14 +1173,17 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1175,44 +1201,45 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1255000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1012400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>906400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1042900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>696500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>720400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>717200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>522300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>532500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>411400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>279400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1231,44 +1258,47 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-466900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-245700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-39500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-362500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-31000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-113000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-33600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-67800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1287,8 +1317,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1309,43 +1342,44 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>82000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-65300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>30400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>27200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>58300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>39200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1365,44 +1399,47 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-435500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-218600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-254200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-71500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>33300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-31300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-20700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1421,44 +1458,47 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E22" s="3">
         <v>26700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,50 +1511,53 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-491800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-272600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-60600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-113300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-69600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-64300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1533,44 +1576,47 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,14 +1629,17 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1645,44 +1694,47 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-491700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-270700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-60600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-301700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-112000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-70300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-64800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,43 +1753,46 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-260500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-140800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-148400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-54200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1757,8 +1812,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1813,8 +1871,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1869,8 +1930,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1925,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1981,43 +2048,46 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-82000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>65300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-30400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-27200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-58300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-39200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -2037,43 +2107,46 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-260500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-140800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-148400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-54200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -2093,8 +2166,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2149,43 +2225,46 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-260500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-140800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-148400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-54200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -2205,49 +2284,52 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2266,8 +2348,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2288,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2310,44 +2396,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E41" s="3">
         <v>27700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>113100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>163200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>208900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>319300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2453,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2422,44 +2512,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E43" s="3">
         <v>107200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>242200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>233800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>202000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>201000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>191700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>133400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>223600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>131800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>88000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,14 +2565,17 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2501,21 +2597,21 @@
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="3">
         <v>1100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,50 +2624,53 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E45" s="3">
         <v>31500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>79600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>78800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,44 +2689,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E46" s="3">
         <v>166300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>313700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>340700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>305000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>287300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>323600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>317200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>465100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>472400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>111000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2646,8 +2748,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2693,8 +2798,8 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
@@ -2702,44 +2807,47 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>243800</v>
+      </c>
+      <c r="E48" s="3">
         <v>303900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>310800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>309200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>297000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>274800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>247800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>217400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>64200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>40200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,50 +2860,53 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>818100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1231700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1253000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1274100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1584500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1573000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1583800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1595300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1606100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1135800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>458000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2808,14 +2919,17 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2870,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2926,44 +3043,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E52" s="3">
         <v>5400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>66900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>4700</v>
       </c>
       <c r="L52" s="3">
         <v>4700</v>
       </c>
       <c r="M52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N52" s="3">
         <v>7500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2976,14 +3096,17 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3038,44 +3161,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1211900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1707300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1944400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1928900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2196100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2141400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2171800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2143500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2140100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1659200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>616700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3220,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3116,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3138,44 +3268,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E57" s="3">
         <v>124800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>115200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>105700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>110300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>69400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>93400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>72800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>76700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3188,50 +3319,53 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E58" s="3">
         <v>112600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>8000</v>
       </c>
       <c r="H58" s="3">
         <v>8000</v>
       </c>
       <c r="I58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J58" s="3">
         <v>7900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3250,44 +3384,47 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E59" s="3">
         <v>99500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>89900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>94600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>64600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>57400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>80000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3306,44 +3443,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>365900</v>
+      </c>
+      <c r="E60" s="3">
         <v>336900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>213900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>208400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>185600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>142100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>158700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>161000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>139600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>92700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>87100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3362,44 +3502,47 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E61" s="3">
         <v>930000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1016400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1001200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>917500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>917800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>918500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>918800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>919100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>528400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>458800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3418,44 +3561,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E62" s="3">
         <v>204600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>209600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>225000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>310000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>240500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>256900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>265200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>223400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>149800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3620,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3530,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3586,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3642,44 +3797,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1560600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1663500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1676300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1789600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1729100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1785600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1824800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1829500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1307000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>569600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3698,8 +3856,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3720,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3776,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3832,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3888,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3944,44 +4115,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-715400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-454900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-314200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-286000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-137700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-83400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-78100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-78800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-37600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-110400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,8 +4174,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4056,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4112,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4168,44 +4351,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-122100</v>
+      </c>
+      <c r="E76" s="3">
         <v>146700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>280900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>252600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>406500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>412300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>386200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>318700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>310600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>352200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4224,8 +4410,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4280,49 +4469,52 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4341,43 +4533,46 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-260500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-140800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-148400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-54200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -4397,8 +4592,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4419,44 +4617,45 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E83" s="3">
         <v>27300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>26400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>18700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4469,14 +4668,17 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4531,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4587,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4643,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4699,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4755,44 +4969,47 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-29500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-62200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-45000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-37200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-37000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-34900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-39900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4811,8 +5028,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4833,44 +5053,45 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4880,8 +5101,8 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4889,8 +5110,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4945,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5001,44 +5228,47 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-466800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-636400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5051,14 +5281,17 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5079,8 +5312,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5135,8 +5369,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5191,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5247,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5303,44 +5546,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E100" s="3">
         <v>6600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>56500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>81400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>391300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>992100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5359,8 +5605,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5415,44 +5664,47 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-65200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-45700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-110400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>312700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-27200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5469,6 +5721,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
